--- a/biology/Botanique/Rosa_obtusifolia/Rosa_obtusifolia.xlsx
+++ b/biology/Botanique/Rosa_obtusifolia/Rosa_obtusifolia.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F6"/>
+  <dimension ref="A1:H6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Rosa obtusifolia est une espèce de plantes à fleurs de la famille des Rosaceae. C'est un rosier appartenant à la section des Caninae, originaire des régions montagneuses d'Europe centrale et méridionale (de la France à la Roumanie).
 Il ressemble à Rosa canina.
@@ -512,12 +524,14 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">C'est un arbrisseau épineux formant un buisson de 1,5 mètre de haut, aux tiges munies de nombreux aiguillons.
 Les feuilles imparipennées, d'un vert foncé, comptent de 5 à 7 folioles sont velues sur les deux faces.
 Les fleurs, de 4 cm de diamètre, varient du blanc au rose, elles éclosent en juin-juillet.
-Elles donnent des fruits, des cynorrhodons lisses et ellipsoïdes, de 1,5 cm de long[1], de couleur orangée à rouge.
+Elles donnent des fruits, des cynorrhodons lisses et ellipsoïdes, de 1,5 cm de long, de couleur orangée à rouge.
 </t>
         </is>
       </c>
@@ -546,7 +560,9 @@
           <t>Cultivar</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">Rosa obtusifolia 'Sclerophylla' aux bord des folioles parcheminé et transparent
 </t>
@@ -577,7 +593,9 @@
           <t>Synonymes</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t>Rosa tomentella J.Herrm.
 Rosa canina var. tomentella J.Herrm.</t>
@@ -608,7 +626,9 @@
           <t>Statut de protection</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
         <is>
           <t xml:space="preserve">En Suisse, l'espèce figure sur la liste rouge des plantes
 </t>
